--- a/test/data/index.xlsx
+++ b/test/data/index.xlsx
@@ -20,19 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>a2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>b2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>c2</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>{}</t>
     <phoneticPr fontId="1"/>
@@ -87,6 +75,26 @@
   </si>
   <si>
     <t>#array:index</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date:date</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -94,7 +102,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -107,6 +118,21 @@
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -131,8 +157,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -471,39 +500,39 @@
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -512,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -528,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -558,7 +587,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -593,10 +622,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -612,21 +641,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1">
+        <v>41791.208333333336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1">
+        <v>41821.208333333336</v>
       </c>
     </row>
   </sheetData>

--- a/test/data/index.xlsx
+++ b/test/data/index.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13800" tabRatio="500"/>
+    <workbookView xWindow="-64000" yWindow="2620" windowWidth="25600" windowHeight="13800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1.obj.array" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,59 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+  <si>
+    <t>_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#array.key</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#array.num:number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hoge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bbb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fuga</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#array.#list:number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#array:index</t>
+    <phoneticPr fontId="1"/>
+  </si>
   <si>
     <t>{}</t>
     <phoneticPr fontId="1"/>
@@ -30,71 +83,59 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date:date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>__ref</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bool:boolean</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#arr.code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>aaa</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>#array.key</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#array.num:number</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>key</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hoge</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bbb</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fuga</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#array.#list:number</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#array:index</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>date:date</t>
+    <t>{"name":"Sheet1", "type": "array", "key": "obj.array"}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -501,38 +542,38 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -541,7 +582,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -557,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -587,7 +628,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -622,10 +663,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
         <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -641,6 +682,105 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -652,20 +792,20 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1">
         <v>41791.208333333336</v>
@@ -673,7 +813,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1">
         <v>41821.208333333336</v>
